--- a/Parameters/EMails.xlsx
+++ b/Parameters/EMails.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,6 +40,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>FIO_4_email</t>
+  </si>
   <si>
     <t>Personal_email</t>
   </si>
@@ -48,15 +52,12 @@
   <si>
     <t>boss_email</t>
   </si>
-  <si>
-    <t>FIO_4_email</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,9 +138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,7 +441,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -448,22 +449,297 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="59f349e3-caa6-4eb7-a851-e4cdd4927c68" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a329fe1b-525e-46f2-86b9-553d5429d077">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100A5FE0A726EE5EE4D89E0B735A3FB1DE0" ma:contentTypeVersion="16" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="5e9308daf1960a05a092a33ec00fc763">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a329fe1b-525e-46f2-86b9-553d5429d077" xmlns:ns3="59f349e3-caa6-4eb7-a851-e4cdd4927c68" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c35f6cf42f9229422027ddcc0ee5042a" ns2:_="" ns3:_="">
+    <xsd:import namespace="a329fe1b-525e-46f2-86b9-553d5429d077"/>
+    <xsd:import namespace="59f349e3-caa6-4eb7-a851-e4cdd4927c68"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a329fe1b-525e-46f2-86b9-553d5429d077" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Теги изображений" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e4358047-b6f3-435b-a685-922122b285d1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="59f349e3-caa6-4eb7-a851-e4cdd4927c68" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Общий доступ с использованием" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Совместно с подробностями" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{655aabb9-0142-4116-99f8-f89e4824f242}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="59f349e3-caa6-4eb7-a851-e4cdd4927c68">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Тип контента"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Название"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76E8F9B9-5CFC-4EE4-9EBB-18E348CE57F4}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{925C3737-5481-445F-AA35-802EACEFC6A4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB404F1-EEC8-420F-9925-D3ED8BA67A91}"/>
 </file>
--- a/Parameters/EMails.xlsx
+++ b/Parameters/EMails.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dim-Dim\MyData\Common Work Place\Projects\DES.LM.Reports\_tmp_UpLoadParameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18332C82-C503-4542-AACB-54768F812DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F10BA-5D23-4921-8A05-09F0BC14AEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FIO_4_email</t>
   </si>
@@ -52,12 +52,18 @@
   <si>
     <t>boss_email</t>
   </si>
+  <si>
+    <t>ВхВГр</t>
+  </si>
+  <si>
+    <t>BOSS_NAME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,62 +440,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
+  <autoFilter ref="A1:F1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="59f349e3-caa6-4eb7-a851-e4cdd4927c68" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a329fe1b-525e-46f2-86b9-553d5429d077">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100A5FE0A726EE5EE4D89E0B735A3FB1DE0" ma:contentTypeVersion="16" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="5e9308daf1960a05a092a33ec00fc763">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a329fe1b-525e-46f2-86b9-553d5429d077" xmlns:ns3="59f349e3-caa6-4eb7-a851-e4cdd4927c68" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c35f6cf42f9229422027ddcc0ee5042a" ns2:_="" ns3:_="">
     <xsd:import namespace="a329fe1b-525e-46f2-86b9-553d5429d077"/>
@@ -732,14 +726,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="59f349e3-caa6-4eb7-a851-e4cdd4927c68" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a329fe1b-525e-46f2-86b9-553d5429d077">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76E8F9B9-5CFC-4EE4-9EBB-18E348CE57F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB404F1-EEC8-420F-9925-D3ED8BA67A91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a329fe1b-525e-46f2-86b9-553d5429d077"/>
+    <ds:schemaRef ds:uri="59f349e3-caa6-4eb7-a851-e4cdd4927c68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{925C3737-5481-445F-AA35-802EACEFC6A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{925C3737-5481-445F-AA35-802EACEFC6A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB404F1-EEC8-420F-9925-D3ED8BA67A91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76E8F9B9-5CFC-4EE4-9EBB-18E348CE57F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="59f349e3-caa6-4eb7-a851-e4cdd4927c68"/>
+    <ds:schemaRef ds:uri="a329fe1b-525e-46f2-86b9-553d5429d077"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>